--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Quick Test Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Quick Test Report.xlsx
@@ -5,28 +5,29 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\on_working_project_code\Hendrix_github\Hendrix_M_Lite_GD\sw\project_files\Hendrix_M\Release\Hendrix_LiteV3_Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\on_working_project_code\Hendrix_M_Lite_GD_nick\sw\project_files\Hendrix_M\Release\Hendrix_LiteV3_Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="9937" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="RDQT 7.0.2" sheetId="19" r:id="rId1"/>
-    <sheet name="RDQT 7.0.1" sheetId="18" r:id="rId2"/>
-    <sheet name="RDQT 7.0.0" sheetId="17" r:id="rId3"/>
-    <sheet name="RDQT 6.0.7" sheetId="16" r:id="rId4"/>
-    <sheet name="RDQT 6.0.6" sheetId="15" r:id="rId5"/>
-    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId6"/>
-    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId7"/>
-    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId8"/>
-    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId9"/>
-    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId10"/>
-    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId11"/>
-    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId12"/>
+    <sheet name="RDQT 7.0.3" sheetId="20" r:id="rId1"/>
+    <sheet name="RDQT 7.0.2" sheetId="19" r:id="rId2"/>
+    <sheet name="RDQT 7.0.1" sheetId="18" r:id="rId3"/>
+    <sheet name="RDQT 7.0.0" sheetId="17" r:id="rId4"/>
+    <sheet name="RDQT 6.0.7" sheetId="16" r:id="rId5"/>
+    <sheet name="RDQT 6.0.6" sheetId="15" r:id="rId6"/>
+    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId7"/>
+    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId8"/>
+    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId9"/>
+    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId10"/>
+    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId11"/>
+    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId12"/>
+    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
   <definedNames>
     <definedName name="Light">[1]List!$A$2:$A$6</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="82">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -353,12 +354,24 @@
     <t>Nick Wang</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>7.0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only supports to read the MCU version now</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -420,6 +433,15 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -514,7 +536,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -575,6 +597,51 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -604,42 +671,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,10 +1042,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J5" sqref="J5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -1029,14 +1060,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="19" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1047,48 +1078,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
-        <v>44616</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
+        <v>44651</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1097,24 +1128,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1123,22 +1154,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1147,22 +1178,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1171,22 +1202,24 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1195,22 +1228,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1219,22 +1252,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1243,22 +1276,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1267,22 +1300,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1291,22 +1324,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1315,22 +1348,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1339,22 +1372,526 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="41">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
+        <v>44361</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1363,18 +1900,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1383,18 +1920,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1403,18 +1940,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1423,18 +1960,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1443,39 +1980,72 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="C20:G20"/>
@@ -1486,39 +2056,6 @@
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -1549,13 +2086,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1567,48 +2104,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>43654</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1617,24 +2154,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1643,22 +2180,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1667,22 +2204,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1691,22 +2228,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1715,22 +2252,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1739,22 +2276,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1763,22 +2300,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1787,22 +2324,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1811,22 +2348,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1835,22 +2372,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1859,22 +2396,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1883,22 +2420,22 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1907,22 +2444,22 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1931,22 +2468,22 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1955,22 +2492,22 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1979,40 +2516,40 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2066,7 +2603,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2089,13 +2626,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2107,48 +2644,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>43189</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2157,24 +2694,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2183,22 +2720,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2207,22 +2744,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2231,22 +2768,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2255,22 +2792,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2279,22 +2816,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2303,22 +2840,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2327,22 +2864,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2351,22 +2888,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -2375,22 +2912,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2399,22 +2936,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2423,22 +2960,22 @@
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2447,22 +2984,22 @@
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -2471,22 +3008,22 @@
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -2495,24 +3032,24 @@
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="12.85" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -2563,7 +3100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2584,13 +3121,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2602,48 +3139,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>43041</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2652,24 +3189,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2678,24 +3215,24 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2704,22 +3241,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2728,22 +3265,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2752,22 +3289,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2776,24 +3313,24 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2802,22 +3339,22 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="33"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2826,24 +3363,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="31" t="s">
+      <c r="J11" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="26"/>
     </row>
     <row r="12" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2852,54 +3389,54 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="38"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="33"/>
     </row>
     <row r="14" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2969,14 +3506,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="18" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2987,48 +3524,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
-        <v>44616</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
+        <v>44644</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3037,24 +3574,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3063,22 +3600,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3087,22 +3624,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3111,22 +3648,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3135,22 +3672,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3159,22 +3696,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3183,22 +3720,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3207,22 +3744,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3231,22 +3768,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3255,22 +3792,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3279,22 +3816,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -3303,18 +3840,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -3323,18 +3860,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -3343,18 +3880,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -3363,18 +3900,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -3383,36 +3920,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3473,6 +4010,526 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
+        <v>44616</v>
+      </c>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
@@ -3489,13 +4546,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
@@ -3507,48 +4564,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>44609</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3557,24 +4614,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3583,22 +4640,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3607,22 +4664,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3631,22 +4688,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3655,22 +4712,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3679,22 +4736,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3703,22 +4760,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3727,24 +4784,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3753,22 +4810,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3777,22 +4834,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3801,22 +4858,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -3825,18 +4882,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -3845,18 +4902,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -3865,18 +4922,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -3885,18 +4942,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -3905,36 +4962,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -3988,7 +5045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4011,13 +5068,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
@@ -4029,48 +5086,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>44440</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4079,24 +5136,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -4105,22 +5162,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4129,22 +5186,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4153,22 +5210,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4177,22 +5234,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4201,22 +5258,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4225,22 +5282,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4249,24 +5306,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4275,22 +5332,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4299,22 +5356,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4323,22 +5380,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -4347,18 +5404,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -4367,18 +5424,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -4387,18 +5444,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -4407,18 +5464,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -4427,36 +5484,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -4510,7 +5567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -4533,13 +5590,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
@@ -4551,48 +5608,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>44411</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4601,24 +5658,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -4627,22 +5684,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4651,22 +5708,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4675,22 +5732,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4699,22 +5756,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4723,22 +5780,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4747,22 +5804,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4771,24 +5828,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4797,22 +5854,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4821,22 +5878,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4845,22 +5902,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -4869,18 +5926,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -4889,18 +5946,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -4909,18 +5966,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -4929,18 +5986,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -4949,36 +6006,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5032,7 +6089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5055,13 +6112,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
@@ -5073,48 +6130,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>44411</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5123,24 +6180,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -5149,22 +6206,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5173,22 +6230,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5197,22 +6254,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5221,22 +6278,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5245,22 +6302,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5269,22 +6326,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5293,24 +6350,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5319,22 +6376,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5343,22 +6400,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5367,22 +6424,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -5391,18 +6448,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -5411,18 +6468,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -5431,18 +6488,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -5451,18 +6508,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -5471,36 +6528,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5554,7 +6611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -5577,13 +6634,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
@@ -5595,48 +6652,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>44396</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5645,24 +6702,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -5671,22 +6728,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5695,22 +6752,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5719,22 +6776,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5743,22 +6800,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5767,22 +6824,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5791,22 +6848,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5815,24 +6872,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5841,22 +6898,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5865,22 +6922,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5889,22 +6946,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -5913,18 +6970,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -5933,18 +6990,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -5953,18 +7010,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -5973,18 +7030,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -5993,36 +7050,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -6076,7 +7133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -6099,13 +7156,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
       <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
@@ -6117,48 +7174,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
+      <c r="D2" s="37"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
+      <c r="G3" s="39"/>
+      <c r="H3" s="40">
         <v>44392</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6167,24 +7224,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -6193,22 +7250,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6217,22 +7274,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -6241,22 +7298,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -6265,22 +7322,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -6289,22 +7346,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -6313,22 +7370,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -6337,24 +7394,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="33"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -6363,22 +7420,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="33"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -6387,22 +7444,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -6411,22 +7468,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -6435,18 +7492,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -6455,18 +7512,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -6475,18 +7532,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -6495,18 +7552,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -6515,36 +7572,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -6598,586 +7655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF92D050"/>
-  </sheetPr>
-  <dimension ref="A1:L20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="51" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="6"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25">
-        <v>44361</v>
-      </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-    </row>
-    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="33"/>
-    </row>
-    <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="33"/>
-    </row>
-    <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-    </row>
-    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="33"/>
-    </row>
-    <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="38"/>
-    </row>
-    <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
-    </row>
-    <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="33"/>
-    </row>
-    <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="33"/>
-    </row>
-    <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>13</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="33"/>
-    </row>
-    <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>14</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="33"/>
-    </row>
-    <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="32"/>
-      <c r="L19" s="33"/>
-    </row>
-    <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="J18:L18"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006ADE9B120D8C2544A30794E0CE6B3CF6" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b7a23d33ee8a228344a1c6303b6d86b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72de59d5-254d-430a-8862-e2bf58cab753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b905d02d852158c2afe173951ebabb5b" ns2:_="">
     <xsd:import namespace="72de59d5-254d-430a-8862-e2bf58cab753"/>
@@ -7322,7 +7800,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
@@ -7334,23 +7812,66 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=15.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7368,7 +7889,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90A17C51-7000-43B7-9373-E2C13FAD8445}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -7382,4 +7903,20 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF19337-409A-4CFF-80EA-D2526D7612D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Quick Test Report.xlsx
+++ b/sw/project_files/Hendrix_M/Release/Hendrix_LiteV3_Notes/RD-Quick Test Report.xlsx
@@ -12,22 +12,23 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="25050" windowHeight="9937" tabRatio="664"/>
   </bookViews>
   <sheets>
-    <sheet name="RDQT 7.0.3" sheetId="20" r:id="rId1"/>
-    <sheet name="RDQT 7.0.2" sheetId="19" r:id="rId2"/>
-    <sheet name="RDQT 7.0.1" sheetId="18" r:id="rId3"/>
-    <sheet name="RDQT 7.0.0" sheetId="17" r:id="rId4"/>
-    <sheet name="RDQT 6.0.7" sheetId="16" r:id="rId5"/>
-    <sheet name="RDQT 6.0.6" sheetId="15" r:id="rId6"/>
-    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId7"/>
-    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId8"/>
-    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId9"/>
-    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId10"/>
-    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId11"/>
-    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId12"/>
-    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId13"/>
+    <sheet name="RDQT 7.0.4" sheetId="21" r:id="rId1"/>
+    <sheet name="RDQT 7.0.3" sheetId="20" r:id="rId2"/>
+    <sheet name="RDQT 7.0.2" sheetId="19" r:id="rId3"/>
+    <sheet name="RDQT 7.0.1" sheetId="18" r:id="rId4"/>
+    <sheet name="RDQT 7.0.0" sheetId="17" r:id="rId5"/>
+    <sheet name="RDQT 6.0.7" sheetId="16" r:id="rId6"/>
+    <sheet name="RDQT 6.0.6" sheetId="15" r:id="rId7"/>
+    <sheet name="RDQT 6.0.5" sheetId="14" r:id="rId8"/>
+    <sheet name="RDQT 6.0.4" sheetId="13" r:id="rId9"/>
+    <sheet name="RDQT 6.0.3" sheetId="12" r:id="rId10"/>
+    <sheet name="RDQT 6.0.2" sheetId="11" r:id="rId11"/>
+    <sheet name="RDQT 1.0.2" sheetId="10" r:id="rId12"/>
+    <sheet name="RDQT 1.0.1" sheetId="9" r:id="rId13"/>
+    <sheet name="RDQT 1.0.0" sheetId="8" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId14"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <definedNames>
     <definedName name="Light">[1]List!$A$2:$A$6</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="84">
   <si>
     <t>Pass</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -366,6 +367,14 @@
     <t>Only supports to read the MCU version now</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>7.0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading the BT version is added. Both the MCU and the BT FWs need to be updated accordingly. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -536,7 +545,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,47 +609,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -671,6 +641,48 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,7 +1057,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:L5"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -1060,14 +1072,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="20" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1078,48 +1090,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44651</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44666</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1128,24 +1140,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1154,22 +1166,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1178,22 +1190,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1202,24 +1214,24 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1228,22 +1240,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1252,22 +1264,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1276,22 +1288,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1300,22 +1312,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1324,22 +1336,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1348,22 +1360,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1372,22 +1384,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -1396,22 +1408,22 @@
       <c r="B15" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
       <c r="H15" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -1420,22 +1432,22 @@
       <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
       <c r="H16" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -1444,18 +1456,18 @@
       <c r="B17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -1464,78 +1476,78 @@
       <c r="B18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
       <c r="B19" s="4"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1551,7 +1563,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+      <selection activeCell="J9" sqref="J9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -1566,14 +1578,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="11" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1584,48 +1596,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44361</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44392</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1634,24 +1646,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -1660,22 +1672,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1684,22 +1696,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -1708,22 +1720,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -1732,22 +1744,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -1756,22 +1768,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1780,22 +1792,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -1804,22 +1816,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="J11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1828,22 +1842,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -1852,22 +1866,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -1876,22 +1890,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -1900,18 +1914,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -1920,18 +1934,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -1940,18 +1954,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -1960,18 +1974,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -1980,36 +1994,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2071,7 +2085,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -2086,14 +2100,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="8" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2104,48 +2118,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>43654</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44361</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2154,24 +2168,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2180,22 +2194,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2204,22 +2218,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2228,22 +2242,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2252,22 +2266,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2276,22 +2290,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2300,22 +2314,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2324,22 +2338,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2348,22 +2362,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -2372,22 +2386,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2396,22 +2410,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -2420,22 +2434,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -2444,22 +2454,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -2468,22 +2474,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -2492,22 +2494,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -2516,40 +2514,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="24"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="4" t="s">
-        <v>60</v>
-      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -2597,13 +2591,553 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:L20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="11.375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="51" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>43654</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+    </row>
+    <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <v>12</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="10">
+        <v>13</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
+    </row>
+    <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10">
+        <v>14</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -2626,13 +3160,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
@@ -2644,48 +3178,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
         <v>43189</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -2694,24 +3228,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -2720,22 +3254,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -2744,22 +3278,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -2768,22 +3302,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -2792,22 +3326,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -2816,22 +3350,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -2840,22 +3374,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -2864,22 +3398,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -2888,22 +3422,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -2912,22 +3446,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -2936,22 +3470,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -2960,22 +3494,22 @@
       <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
       <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
@@ -2984,22 +3518,22 @@
       <c r="B16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
       <c r="H16" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -3008,22 +3542,22 @@
       <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
       <c r="H17" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
@@ -3032,57 +3566,28 @@
       <c r="B18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
       <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="12.85" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
@@ -3093,6 +3598,35 @@
     <mergeCell ref="J15:L15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="J16:L16"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3100,7 +3634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF92D050"/>
@@ -3121,13 +3655,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3139,48 +3673,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
         <v>43041</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3189,24 +3723,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3215,24 +3749,24 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="29" t="s">
+      <c r="J5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3241,22 +3775,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3265,22 +3799,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3289,22 +3823,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3313,24 +3847,24 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="29" t="s">
+      <c r="J9" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3339,22 +3873,22 @@
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
     </row>
     <row r="11" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3363,24 +3897,24 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3389,54 +3923,54 @@
       <c r="B12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>9</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="33"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>10</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3446,28 +3980,6 @@
     <row r="20" ht="12.85" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C6:G6"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -3477,6 +3989,28 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J12:L12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3488,10 +4022,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J5" sqref="J5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -3506,14 +4040,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="19" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -3524,48 +4058,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44644</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44651</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -3574,24 +4108,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -3600,22 +4134,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -3624,22 +4158,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -3648,22 +4182,24 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -3672,22 +4208,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -3696,22 +4232,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -3720,22 +4256,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -3744,22 +4280,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -3768,22 +4304,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -3792,22 +4328,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -3816,159 +4352,143 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+        <v>49</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+        <v>54</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>16</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="41">
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="J19:L19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="J16:L16"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="J17:L17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="J13:L13"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:L15"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="J10:L10"/>
     <mergeCell ref="C11:G11"/>
@@ -4026,14 +4546,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="18" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -4044,48 +4564,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44616</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44644</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4094,24 +4614,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -4120,22 +4640,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4144,22 +4664,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4168,22 +4688,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4192,22 +4712,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4216,22 +4736,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4240,22 +4760,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4264,22 +4784,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="29"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4288,22 +4808,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4312,22 +4832,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4336,22 +4856,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -4360,18 +4880,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -4380,18 +4900,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -4400,18 +4920,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -4420,18 +4940,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -4440,39 +4960,72 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="J15:L15"/>
     <mergeCell ref="C19:G19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="C20:G20"/>
@@ -4483,39 +5036,6 @@
     <mergeCell ref="J17:L17"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="J18:L18"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:L2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4530,8 +5050,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -4546,14 +5066,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="17" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -4564,48 +5084,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44609</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44616</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -4614,24 +5134,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -4640,22 +5160,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4664,22 +5184,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -4688,22 +5208,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -4712,22 +5232,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4736,22 +5256,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4760,22 +5280,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4784,24 +5304,22 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+        <v>20</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4810,22 +5328,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4834,22 +5352,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -4858,22 +5376,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>78</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -4882,18 +5400,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -4902,18 +5420,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -4922,18 +5440,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -4942,18 +5460,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -4962,36 +5480,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5052,8 +5570,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:E3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -5068,14 +5586,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="16" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -5086,48 +5604,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44440</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44609</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5136,24 +5654,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -5162,22 +5680,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5186,22 +5704,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5210,22 +5728,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+        <v>76</v>
+      </c>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5234,22 +5752,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5258,22 +5776,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5282,22 +5800,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5306,24 +5824,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5332,22 +5850,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5356,22 +5874,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5380,22 +5898,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+        <v>76</v>
+      </c>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -5404,18 +5922,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -5424,18 +5942,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -5444,18 +5962,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -5464,18 +5982,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -5484,36 +6002,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -5574,8 +6092,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15:L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -5590,14 +6108,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="15" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -5608,48 +6126,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44411</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44440</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -5658,24 +6176,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -5684,22 +6202,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -5708,22 +6226,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -5732,22 +6250,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -5756,22 +6274,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -5780,22 +6298,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -5804,22 +6322,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -5828,24 +6346,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -5854,22 +6372,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -5878,22 +6396,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -5902,22 +6420,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -5926,18 +6444,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -5946,18 +6464,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -5966,18 +6484,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -5986,18 +6504,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -6006,36 +6524,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -6096,8 +6614,8 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -6112,14 +6630,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="14" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -6130,48 +6648,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
         <v>44411</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6180,24 +6698,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -6206,22 +6724,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6230,22 +6748,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -6254,22 +6772,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -6278,22 +6796,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -6302,22 +6820,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -6326,22 +6844,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -6350,24 +6868,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -6376,22 +6894,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -6400,22 +6918,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -6424,22 +6942,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -6448,18 +6966,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -6468,18 +6986,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -6488,18 +7006,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -6508,18 +7026,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -6528,36 +7046,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -6619,7 +7137,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -6634,14 +7152,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="13" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -6652,48 +7170,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44396</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44411</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -6702,24 +7220,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -6728,22 +7246,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -6752,22 +7270,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -6776,22 +7294,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -6800,22 +7318,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -6824,22 +7342,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -6848,22 +7366,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -6872,24 +7390,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -6898,22 +7416,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -6922,22 +7440,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -6946,22 +7464,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -6970,18 +7488,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -6990,18 +7508,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -7010,18 +7528,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -7030,18 +7548,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -7050,36 +7568,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -7141,7 +7659,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:L9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.55" x14ac:dyDescent="0.25"/>
@@ -7156,14 +7674,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="12" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -7174,48 +7692,48 @@
       <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="38" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="44" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="41"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40">
-        <v>44392</v>
-      </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="41"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27">
+        <v>44396</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -7224,24 +7742,24 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
@@ -7250,22 +7768,22 @@
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="35"/>
       <c r="H5" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" spans="1:12" ht="40.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7274,22 +7792,22 @@
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="28"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="35"/>
     </row>
     <row r="7" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
@@ -7298,22 +7816,22 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
       <c r="H7" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="29"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
@@ -7322,22 +7840,22 @@
       <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
       <c r="H8" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="35"/>
     </row>
     <row r="9" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -7346,22 +7864,22 @@
       <c r="B9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="35"/>
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -7370,22 +7888,22 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="28"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
     </row>
     <row r="11" spans="1:12" ht="52.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -7394,24 +7912,24 @@
       <c r="B11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
       <c r="H11" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="29" t="s">
+      <c r="J11" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="33"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="40"/>
     </row>
     <row r="12" spans="1:12" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -7420,22 +7938,22 @@
       <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
       <c r="H12" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="33"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="40"/>
     </row>
     <row r="13" spans="1:12" ht="70.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -7444,22 +7962,22 @@
       <c r="B13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="29"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
@@ -7468,22 +7986,22 @@
       <c r="B14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
       <c r="H14" s="4" t="s">
         <v>64</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
@@ -7492,18 +8010,18 @@
       <c r="B15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="45"/>
       <c r="H15" s="4"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
@@ -7512,18 +8030,18 @@
       <c r="B16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
       <c r="H16" s="4"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
@@ -7532,18 +8050,18 @@
       <c r="B17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="4"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
@@ -7552,18 +8070,18 @@
       <c r="B18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="4"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
@@ -7572,36 +8090,36 @@
       <c r="B19" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" spans="1:12" ht="59.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>16</v>
       </c>
       <c r="B20" s="4"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
       <c r="H20" s="4"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="26"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -7656,6 +8174,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
+      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
+      <Description>6TCUH2D2FU37-209-14453</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006ADE9B120D8C2544A30794E0CE6B3CF6" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6b7a23d33ee8a228344a1c6303b6d86b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72de59d5-254d-430a-8862-e2bf58cab753" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b905d02d852158c2afe173951ebabb5b" ns2:_="">
     <xsd:import namespace="72de59d5-254d-430a-8862-e2bf58cab753"/>
@@ -7800,27 +8339,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="72de59d5-254d-430a-8862-e2bf58cab753">6TCUH2D2FU37-209-14453</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="72de59d5-254d-430a-8862-e2bf58cab753">
-      <Url>http://intranet.tymphany.com/Departments/sw/_layouts/15/DocIdRedir.aspx?ID=6TCUH2D2FU37-209-14453</Url>
-      <Description>6TCUH2D2FU37-209-14453</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -7872,19 +8390,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7906,9 +8414,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0AA1759-4A2E-4491-9C5A-7766559224EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6290CC7F-B9B0-4D98-A55D-A30816CE8732}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="72de59d5-254d-430a-8862-e2bf58cab753"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
